--- a/biology/Médecine/Jorge_Chica/Jorge_Chica.xlsx
+++ b/biology/Médecine/Jorge_Chica/Jorge_Chica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorge Chica Ramírez (1952 - 30 mars 2020) était un footballeur et neurochirurgien équatorien. Il a obtenu son diplôme de médecin alors qu'il jouait encore pour le Barcelona Sporting Club, raison pour laquelle il a été surnommé « The Doctor » sur le terrain. Il a été champion avec le Barcelona Sporting Club en 1980[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jorge Chica Ramírez (1952 - 30 mars 2020) était un footballeur et neurochirurgien équatorien. Il a obtenu son diplôme de médecin alors qu'il jouait encore pour le Barcelona Sporting Club, raison pour laquelle il a été surnommé « The Doctor » sur le terrain. Il a été champion avec le Barcelona Sporting Club en 1980.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chica a joué comme ailier gauche dans plusieurs clubs de football équatoriens[1],[2]. Il est devenu plus connu lorsqu'il a rejoint le Barcelona Sporting Club en 1974, jouant pendant sept saisons jusqu'en 1980 ; en même temps, il a obtenu son diplôme de médecin, raison pour laquelle il a été surnommé « The Doctor » Chica sur le terrain[1],[2]. Il a atteint le sommet de sa carrière en 1977 et 1978, quand il s'est imposé comme titulaire dans l'équipe avec Miguel Coronel, Washington Pepe Paes, Víctor Ephanor (en), Juan Madruñero, Nelsinho et d'autres[1]. Il a clos son cycle professionnel en tant que champion avec son équipe en 1980[1].
-En tant que médecin, il s'est spécialisé en neurochirurgie et a travaillé dans divers hôpitaux du New Jersey, aux États-Unis, avant de retourner en Équateur[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chica a joué comme ailier gauche dans plusieurs clubs de football équatoriens,. Il est devenu plus connu lorsqu'il a rejoint le Barcelona Sporting Club en 1974, jouant pendant sept saisons jusqu'en 1980 ; en même temps, il a obtenu son diplôme de médecin, raison pour laquelle il a été surnommé « The Doctor » Chica sur le terrain,. Il a atteint le sommet de sa carrière en 1977 et 1978, quand il s'est imposé comme titulaire dans l'équipe avec Miguel Coronel, Washington Pepe Paes, Víctor Ephanor (en), Juan Madruñero, Nelsinho et d'autres. Il a clos son cycle professionnel en tant que champion avec son équipe en 1980.
+En tant que médecin, il s'est spécialisé en neurochirurgie et a travaillé dans divers hôpitaux du New Jersey, aux États-Unis, avant de retourner en Équateur,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques jours avant sa mort, Jorge Chica a soigné l'ancien footballeur d'Emelec Ecuador Figueroa, en phase terminale d'un cancer[1]. Jorge Chica est décédé à 68 ans le 30 mars 2020 des complications causées par le SARS-CoV-2, lors de la pandémie de Covid-19 en Équateur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques jours avant sa mort, Jorge Chica a soigné l'ancien footballeur d'Emelec Ecuador Figueroa, en phase terminale d'un cancer. Jorge Chica est décédé à 68 ans le 30 mars 2020 des complications causées par le SARS-CoV-2, lors de la pandémie de Covid-19 en Équateur.
 </t>
         </is>
       </c>
